--- a/BestWish/file/message.xlsx
+++ b/BestWish/file/message.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\库\文档\GitHub\ToOurTeacher\BestWish\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14AD3E0D-E1A5-403B-87DD-BEC31A1AA697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BA75DD-2746-4652-B4DA-0934F0353E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,14 +79,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>老师：
-  不知道看到这段文字的您心情是如何。
-  ……</t>
+    <t xml:space="preserve">XXX老师：
+    ……      </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>XXX老师：
-  三年时间飞逝，转眼间，我们也到了离别的这一天。
   ……  
   老师，今天，我们都要去往更远的地方
   离别之前，祝您万事顺意，平安喜乐
@@ -101,7 +99,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,13 +116,6 @@
     </font>
     <font>
       <sz val="48"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="72"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
@@ -160,6 +151,38 @@
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -182,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -190,25 +213,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -217,7 +234,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -506,13 +535,13 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" style="9"/>
-    <col min="3" max="3" width="143.5546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="7"/>
+    <col min="3" max="3" width="143.5546875" style="8" customWidth="1"/>
     <col min="4" max="4" width="22.21875" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="35.21875" customWidth="1"/>
@@ -520,79 +549,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="240.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="7">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="305.39999999999998" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="9">
+      <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="240.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="9">
+      <c r="B4" s="7">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="240.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="240.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9">
+      <c r="B6" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="240.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="9">
+      <c r="B7" s="7">
         <v>5</v>
       </c>
     </row>
